--- a/DataTable/AdventureRepeatQuestTable.xlsx
+++ b/DataTable/AdventureRepeatQuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{57600FAC-5990-C847-B069-9E854BD2F21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E9547BF-BA34-8842-897C-5F19AC4D9EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-19540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3320" yWindow="-13960" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdventureRepeatQuestTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="19">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -69,23 +69,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>// 반복 횟수 * targetValueMultiplierByRepeatCount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>rewardMultiplierByRepeatCount</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>// type, id, amount;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 반복 횟수 * rewardMultiplierByRepeatCount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>// = targetVlaue * 반복 횟수 계수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -99,6 +87,14 @@
   </si>
   <si>
     <t>HatchEgg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>// rewardItemAmount * (1 + 반복 횟수 * rewardMultiplierByRepeatCount)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>// = targetVlaue * (1 + 반복 횟수 * targetValueMultiplierByRepeatCount)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1084,17 +1080,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -1104,16 +1100,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1133,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1161,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -1170,7 +1163,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
         <v>1.25</v>
@@ -1181,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -1190,7 +1183,7 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
         <v>1.25</v>
